--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C15CE-4900-4282-96CF-4DE603DEFB6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B6C97-D7A0-4420-B197-B057DA1A2DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,126 +32,57 @@
     <t>BE2</t>
   </si>
   <si>
-    <t>Shop 105-106, 1/F, Marble Garden, 33 Marble Road, North Point, HK</t>
-  </si>
-  <si>
     <t>BE3</t>
   </si>
   <si>
-    <t>63-63A Ma On Shan Centre,
-1 On Chun Street,
-Ma On Shan</t>
-  </si>
-  <si>
     <t>BE4</t>
   </si>
   <si>
-    <t>Kid Zone,
-Shop B56, Basement 1, Site 11,
-Whampoa Garden, 
-6 Tak Hong Street, 
-Hung Hom, Kowloon.</t>
-  </si>
-  <si>
     <t>BE5</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop UG19, Maritime Bay Shopping Centre
-18 Pui Shing Road,
-Tseung Kwan O </t>
-  </si>
-  <si>
     <t>BE6</t>
   </si>
   <si>
-    <t>Shop 34 at Podium,
-31 Broadway Street, Stage 1,
-Mei Foo Sun Chuen, Kowloon</t>
-  </si>
-  <si>
     <t>BE7</t>
   </si>
   <si>
-    <t>Unit C, 7th Floor, Kings Wing Plaza 1, 3 On Kwan Street, Shek Mun, Shatin</t>
-  </si>
-  <si>
     <t>BE8</t>
   </si>
   <si>
-    <t>Shop GC22, G/F, Lei King Wan, 35 Tai Hong Street,
-Sai Wan Ho, HK</t>
-  </si>
-  <si>
     <t>BE9</t>
   </si>
   <si>
-    <t>Shop 28, Shun Fung Bldg., 5-7 Fung Yau Street North, Yuen Long</t>
-  </si>
-  <si>
     <t>BE10</t>
   </si>
   <si>
-    <t>Shop 203, First Floor, Park Circle,
-18 Castle Peak Road Tam Mi,
-Yuen Long</t>
-  </si>
-  <si>
     <t>BE11</t>
   </si>
   <si>
-    <t>Shop 224, 2/F Belvedere Square,
-Belvedere Garden Phase 2,
-620 Castle Peak Road</t>
-  </si>
-  <si>
     <t>BE12</t>
   </si>
   <si>
-    <t>Shop 32-33, G/F, Centre De Laguna, Laguna City Phase 3, 93 Cha Kwo Ling Road, Kowloon</t>
-  </si>
-  <si>
     <t>BE13</t>
   </si>
   <si>
-    <t>Shop C2A, LG2 Phase 3, Ocean Shores, 88 O King Road, Tseung Kwan O, N.T.</t>
-  </si>
-  <si>
     <t>BE14</t>
   </si>
   <si>
-    <t>Shop 209-210, 2/F, Lions Rise Mall, 8 Muk Lun Street, Wong Tai Sin, Kowloon.</t>
-  </si>
-  <si>
     <t>BE15</t>
   </si>
   <si>
-    <t>Shop S61A-62A, 2/F, Amoy Plaza Phase I, Kowloon Bay</t>
-  </si>
-  <si>
     <t>BE16</t>
   </si>
   <si>
-    <t>Shop G79, G/F, Plaza Ascot, 1 Tsun King Road, Shatin, New Territories</t>
-  </si>
-  <si>
     <t>BE17</t>
   </si>
   <si>
-    <t>Shop 3069A, 3/F OP Mall, 100 Tai Ho Road, Tsuen Wan, N.T.</t>
-  </si>
-  <si>
     <t>BE18</t>
   </si>
   <si>
-    <t>Shop 107, 1/F, West 9 zone, 38 Cherry Street, Tai Kok Tsui, KLN</t>
-  </si>
-  <si>
     <t>BE19</t>
   </si>
   <si>
-    <t>Shop 16, Level 2 Belair Monte Shopping Centre, 3 Ma Sik Road, Fanling, New Territories</t>
-  </si>
-  <si>
     <t>BE20</t>
   </si>
   <si>
@@ -204,6 +135,60 @@
   </si>
   <si>
     <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>33 Marble Road, North Point, HK</t>
+  </si>
+  <si>
+    <t>1 On Chun Street, Ma On Shan</t>
+  </si>
+  <si>
+    <t>6 Tak Hong Street, Hung Hom, Kowloon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 Pui Shing Road, Tseung Kwan O </t>
+  </si>
+  <si>
+    <t>31 Broadway Street, Stage 1, Mei Foo Sun Chuen, Kowloon</t>
+  </si>
+  <si>
+    <t>3 On Kwan Street, Shek Mun, Shatin</t>
+  </si>
+  <si>
+    <t>35 Tai Hong Street, Sai Wan Ho, HK</t>
+  </si>
+  <si>
+    <t>5-7 Fung Yau Street North, Yuen Long</t>
+  </si>
+  <si>
+    <t>18 Castle Peak Road Tam Mi, Yuen Long</t>
+  </si>
+  <si>
+    <t>620 Castle Peak Road</t>
+  </si>
+  <si>
+    <t>93 Cha Kwo Ling Road, Kowloon</t>
+  </si>
+  <si>
+    <t>88 O King Road, Tseung Kwan O, N.T.</t>
+  </si>
+  <si>
+    <t>8 Muk Lun Street, Wong Tai Sin, Kowloon.</t>
+  </si>
+  <si>
+    <t>Amoy Plaza Phase I, Kowloon Bay</t>
+  </si>
+  <si>
+    <t>1 Tsun King Road, Shatin, New Territories</t>
+  </si>
+  <si>
+    <t>100 Tai Ho Road, Tsuen Wan, N.T.</t>
+  </si>
+  <si>
+    <t>38 Cherry Street, Tai Kok Tsui, KLN</t>
+  </si>
+  <si>
+    <t>3 Ma Sik Road, Fanling, New Territories</t>
   </si>
 </sst>
 </file>
@@ -594,7 +579,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -605,10 +590,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -624,207 +609,207 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B6C97-D7A0-4420-B197-B057DA1A2DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB0001-82E5-4E22-B560-D2F7531E5829}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,6 @@
     <t>BE1</t>
   </si>
   <si>
-    <t>Shop 1, G/F, Hoi Ming Court,
-4 Babington Path, Mid Levels, HK</t>
-  </si>
-  <si>
     <t>BE2</t>
   </si>
   <si>
@@ -92,45 +88,24 @@
     <t>BE21</t>
   </si>
   <si>
-    <t>Shop G01, G/F, Tuen Mun Parklane Square, No. 2, Tuen Hi Road Tuen Mun, New Territories</t>
-  </si>
-  <si>
     <t>BE22</t>
   </si>
   <si>
-    <t>Shop 19, 1/F, Tsing Yi Garden, 7-19 Tsing Luk Street, Tsing Yi, New Territories</t>
-  </si>
-  <si>
     <t>BE23</t>
   </si>
   <si>
-    <t>No. 501, 5/F, Kornhill Plaza - Office Tower, 1 Kornhill Road, Hong Kong</t>
-  </si>
-  <si>
     <t>BE24</t>
   </si>
   <si>
-    <t>Shop G1D, G/F, The Parkside, 18 Tong Chun Street, Tseung Kwan O, NT</t>
-  </si>
-  <si>
     <t>BE25</t>
   </si>
   <si>
-    <t>Shop 152A, 1/F, Phase 1 of +WOO, 12-18 Tin Yan Road, Tin Shui Wai, NT</t>
-  </si>
-  <si>
     <t>BE26</t>
   </si>
   <si>
-    <t>Shop 1E&amp;1F, Banyan Mall, 863 Lai Chi Kok Road, Lai Chi Kok, KLN</t>
-  </si>
-  <si>
     <t>BE27</t>
   </si>
   <si>
-    <t>Shop A54 Units 48 &amp; 49, Level 2, Tai Po Plaza, No. 1 On Tai Road, Tai Po, NT</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -189,13 +164,37 @@
   </si>
   <si>
     <t>3 Ma Sik Road, Fanling, New Territories</t>
+  </si>
+  <si>
+    <t>4 Babington Path, Mid Levels, HK</t>
+  </si>
+  <si>
+    <t>No. 2, Tuen Hi Road Tuen Mun, New Territories</t>
+  </si>
+  <si>
+    <t>7-19 Tsing Luk Street, Tsing Yi, New Territories</t>
+  </si>
+  <si>
+    <t>1 Kornhill Road, Hong Kong</t>
+  </si>
+  <si>
+    <t>18 Tong Chun Street, Tseung Kwan O, NT</t>
+  </si>
+  <si>
+    <t>12-18 Tin Yan Road, Tin Shui Wai, NT</t>
+  </si>
+  <si>
+    <t>863 Lai Chi Kok Road, Lai Chi Kok, KLN</t>
+  </si>
+  <si>
+    <t>No. 1 On Tai Road, Tai Po, NT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,10 +202,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -252,7 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,10 +571,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -590,10 +585,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -601,215 +596,215 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB0001-82E5-4E22-B560-D2F7531E5829}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAAFFF3-0C7B-4B85-BA74-BBC74EC6D92B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t xml:space="preserve">18 Pui Shing Road, Tseung Kwan O </t>
   </si>
   <si>
-    <t>31 Broadway Street, Stage 1, Mei Foo Sun Chuen, Kowloon</t>
-  </si>
-  <si>
     <t>3 On Kwan Street, Shek Mun, Shatin</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>No. 1 On Tai Road, Tai Po, NT</t>
+  </si>
+  <si>
+    <t>31 Broadway Street, Mei Foo Sun Chuen, Kowloon</t>
   </si>
 </sst>
 </file>
@@ -571,10 +571,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAAFFF3-0C7B-4B85-BA74-BBC74EC6D92B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392ECB2A-63DA-4A05-A699-6CABF289EBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <t>No. 1 On Tai Road, Tai Po, NT</t>
   </si>
   <si>
-    <t>31 Broadway Street, Mei Foo Sun Chuen, Kowloon</t>
+    <t>Broadway, Phase 1  Mei Foo Sun Chuen, Kowloon</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392ECB2A-63DA-4A05-A699-6CABF289EBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1458BC79-7B6E-4979-924C-FE6187AF30C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>100 Tai Ho Road, Tsuen Wan, N.T.</t>
   </si>
   <si>
-    <t>38 Cherry Street, Tai Kok Tsui, KLN</t>
-  </si>
-  <si>
     <t>3 Ma Sik Road, Fanling, New Territories</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
     <t>12-18 Tin Yan Road, Tin Shui Wai, NT</t>
   </si>
   <si>
-    <t>863 Lai Chi Kok Road, Lai Chi Kok, KLN</t>
-  </si>
-  <si>
     <t>No. 1 On Tai Road, Tai Po, NT</t>
   </si>
   <si>
     <t>Broadway, Phase 1  Mei Foo Sun Chuen, Kowloon</t>
+  </si>
+  <si>
+    <t>38 Cherry Street, Tai Kok Tsui, Kowloon</t>
+  </si>
+  <si>
+    <t>863 Lai Chi Kok Road, Lai Chi Kok, Kowloon</t>
   </si>
 </sst>
 </file>
@@ -571,10 +571,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1458BC79-7B6E-4979-924C-FE6187AF30C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A7F99-2B5A-499E-B9B5-CF91CAB9738D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>BE20</t>
   </si>
   <si>
-    <t>G/F, 202 Tin Sum Tsuen, Tai Wai, Sha Tin, New Territories</t>
-  </si>
-  <si>
     <t>BE21</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>863 Lai Chi Kok Road, Lai Chi Kok, Kowloon</t>
+  </si>
+  <si>
+    <t>202 Tin Sum Tsuen, Tai Wai, Sha Tin, New Territories</t>
   </si>
 </sst>
 </file>
@@ -571,10 +571,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -585,10 +585,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,63 +748,63 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A7F99-2B5A-499E-B9B5-CF91CAB9738D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BEA9F1-F0EE-4808-A15D-90F1CB669069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Address.xlsx
+++ b/Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahpc\Desktop\projects\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BEA9F1-F0EE-4808-A15D-90F1CB669069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2601023A-3C02-4D33-9EBF-5B89E86FF598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Branch_Code</t>
-  </si>
-  <si>
     <t>33 Marble Road, North Point, HK</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>202 Tin Sum Tsuen, Tai Wai, Sha Tin, New Territories</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
